--- a/biology/Écologie/George_Tchobanoglous/George_Tchobanoglous.xlsx
+++ b/biology/Écologie/George_Tchobanoglous/George_Tchobanoglous.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">George Tchobanoglous, né le 24 mai 1935, est un ingénieur en génie écologique, écrivain et professeur[1] américain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">George Tchobanoglous, né le 24 mai 1935, est un ingénieur en génie écologique, écrivain et professeur américain.
 </t>
         </is>
       </c>
@@ -511,13 +523,12 @@
           <t>Carrière académique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tchobanoglous est titulaire du baccalauréat en sciences en génie civil de l'Université du Pacifique, d'une maîtrise en sciences en génie sanitaire de l'université de Californie à Berkeley et d'un doctorat en génie écologique de l'université Stanford[1]De ce fait, il a reçu en 2005 le titre de docteur honoris causa en ingénierie de la Colorado School of Mines[2].
-Il est professeur émérite des départements de génie civil et de génie écologique à l'Université de Californie[3] et auteur ou coauteur d'au moins 375 publications, incluant quatorze manuels et cinq livres de référence dans le domaine de l'ingénieurie[2] Ses manuels sont utilisés dans au moins 225 écoles et universités aux États-Unis[2].
-Prix et récompenses académiques
-Tchobanoglous fut président de l'Association of Environmental Engineering and Science Professors[4],[1]. Il a reçu le Athalie Richardson Irvine Clarke Prize du National Water Research Institute en 2003[5],[1] et il a reçu une Frederick George Pohland Medal de l'American Academy of Environmental Engineers and Association of Environmental Engineering and Science Professors en 2007[6].
-Il fait aussi partie du comité éditorial pour la série de livres Water Resources and Environmental Engineering de l'éditeur McGraw-Hill. Il fait aussi partie du comité national et international tant pour les gouvernements que pour les entreprises privées[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tchobanoglous est titulaire du baccalauréat en sciences en génie civil de l'Université du Pacifique, d'une maîtrise en sciences en génie sanitaire de l'université de Californie à Berkeley et d'un doctorat en génie écologique de l'université StanfordDe ce fait, il a reçu en 2005 le titre de docteur honoris causa en ingénierie de la Colorado School of Mines.
+Il est professeur émérite des départements de génie civil et de génie écologique à l'Université de Californie et auteur ou coauteur d'au moins 375 publications, incluant quatorze manuels et cinq livres de référence dans le domaine de l'ingénieurie Ses manuels sont utilisés dans au moins 225 écoles et universités aux États-Unis.
 </t>
         </is>
       </c>
@@ -543,12 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Recherche</t>
+          <t>Carrière académique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les domaines de sa recherche sont le traitement et la réutilisation des eaux résiduelles, le filtrage des eaux résiduelles, désinfection par ultra-violet, système aquatique de gestion des eaux résiduelles, gestion des eaux résiduelles pour  les systèmes petits et décentralisés de gestion des eaux résiduelles et la gestion des résidus solides[8].
+          <t>Prix et récompenses académiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tchobanoglous fut président de l'Association of Environmental Engineering and Science Professors,. Il a reçu le Athalie Richardson Irvine Clarke Prize du National Water Research Institute en 2003, et il a reçu une Frederick George Pohland Medal de l'American Academy of Environmental Engineers and Association of Environmental Engineering and Science Professors en 2007.
+Il fait aussi partie du comité éditorial pour la série de livres Water Resources and Environmental Engineering de l'éditeur McGraw-Hill. Il fait aussi partie du comité national et international tant pour les gouvernements que pour les entreprises privées.
 </t>
         </is>
       </c>
@@ -574,12 +592,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Recherche</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les domaines de sa recherche sont le traitement et la réutilisation des eaux résiduelles, le filtrage des eaux résiduelles, désinfection par ultra-violet, système aquatique de gestion des eaux résiduelles, gestion des eaux résiduelles pour  les systèmes petits et décentralisés de gestion des eaux résiduelles et la gestion des résidus solides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>George_Tchobanoglous</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Tchobanoglous</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Œuvres isolées[9],[10]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Œuvres isolées,
 Wastewater management. Gale Research Co., 1976
 Solid wastes. McGraw-Hill, 1977              
 Solution's manual to accompany Metcalf &amp; Eddy, Inc. McGraw-Hill, 1979
@@ -588,7 +641,7 @@
 Water quality. Addison-Wesley, 1985
 Wastewater Engineering. Mcgraw-Hill College, November 1990 
 Integrated solid waste management. McGraw-Hill, 1993
-En association avec d'autres[9],[10]
+En association avec d'autres,
 Wastewater Engineering Treatment Disposal Reuse por George Tchobanoglous e Metcalf &amp; Eddy. McGraw-Hill Companies, 1991
 Wastewater Engineering por George Tchobanoglous e H. David Stensel. McGraw-Hill Science/Engineering/Math, 2002
 Handbook of Solid Waste Management por George Tchobanoglous e Frank Kreith. McGraw-Hill Professional, 2002
